--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H2">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N2">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q2">
-        <v>0.01380472515644444</v>
+        <v>0.003959094337333333</v>
       </c>
       <c r="R2">
-        <v>0.124242526408</v>
+        <v>0.035631849036</v>
       </c>
       <c r="S2">
-        <v>0.004788468976779325</v>
+        <v>0.001077184232307397</v>
       </c>
       <c r="T2">
-        <v>0.004788468976779325</v>
+        <v>0.001077184232307397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H3">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I3">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J3">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.038293</v>
       </c>
       <c r="O3">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P3">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q3">
-        <v>0.02204042234044444</v>
+        <v>0.01434644047866667</v>
       </c>
       <c r="R3">
-        <v>0.198363801064</v>
+        <v>0.129117964308</v>
       </c>
       <c r="S3">
-        <v>0.007645199554231119</v>
+        <v>0.003903357221784532</v>
       </c>
       <c r="T3">
-        <v>0.00764519955423112</v>
+        <v>0.003903357221784532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H4">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I4">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J4">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N4">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q4">
-        <v>0.1941115820453333</v>
+        <v>0.1816275202026667</v>
       </c>
       <c r="R4">
-        <v>1.747004238408</v>
+        <v>1.634647681824</v>
       </c>
       <c r="S4">
-        <v>0.06733182139622078</v>
+        <v>0.04941693333005653</v>
       </c>
       <c r="T4">
-        <v>0.06733182139622078</v>
+        <v>0.04941693333005653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.189831</v>
       </c>
       <c r="I5">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J5">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N5">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q5">
-        <v>0.08597467619455555</v>
+        <v>0.03788038514011111</v>
       </c>
       <c r="R5">
-        <v>0.773772085751</v>
+        <v>0.340923466261</v>
       </c>
       <c r="S5">
-        <v>0.02982218516346846</v>
+        <v>0.01030643629829314</v>
       </c>
       <c r="T5">
-        <v>0.02982218516346846</v>
+        <v>0.01030643629829314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.189831</v>
       </c>
       <c r="I6">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J6">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.038293</v>
       </c>
       <c r="O6">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P6">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q6">
         <v>0.1372659109425556</v>
@@ -818,10 +818,10 @@
         <v>1.235393198483</v>
       </c>
       <c r="S6">
-        <v>0.04761366479005468</v>
+        <v>0.03734709564920962</v>
       </c>
       <c r="T6">
-        <v>0.04761366479005469</v>
+        <v>0.03734709564920961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.189831</v>
       </c>
       <c r="I7">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J7">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N7">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q7">
-        <v>1.208910733305667</v>
+        <v>1.737801585691556</v>
       </c>
       <c r="R7">
-        <v>10.880196599751</v>
+        <v>15.640214271224</v>
       </c>
       <c r="S7">
-        <v>0.4193369644470853</v>
+        <v>0.472818353766883</v>
       </c>
       <c r="T7">
-        <v>0.4193369644470853</v>
+        <v>0.4728183537668829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H8">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I8">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J8">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N8">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O8">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P8">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q8">
-        <v>0.07328698574244444</v>
+        <v>0.03094136840277778</v>
       </c>
       <c r="R8">
-        <v>0.659582871682</v>
+        <v>0.278472315625</v>
       </c>
       <c r="S8">
-        <v>0.02542118395349136</v>
+        <v>0.008418479412121257</v>
       </c>
       <c r="T8">
-        <v>0.02542118395349136</v>
+        <v>0.008418479412121257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H9">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I9">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J9">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.038293</v>
       </c>
       <c r="O9">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P9">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q9">
-        <v>0.1170089298784444</v>
+        <v>0.1121212232638889</v>
       </c>
       <c r="R9">
-        <v>1.053080368906</v>
+        <v>1.009091009375</v>
       </c>
       <c r="S9">
-        <v>0.04058709060698086</v>
+        <v>0.03050576811671204</v>
       </c>
       <c r="T9">
-        <v>0.04058709060698086</v>
+        <v>0.03050576811671203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H10">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I10">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J10">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N10">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O10">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P10">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q10">
-        <v>1.030506046631333</v>
+        <v>1.419467063888889</v>
       </c>
       <c r="R10">
-        <v>9.274554419682</v>
+        <v>12.775203575</v>
       </c>
       <c r="S10">
-        <v>0.357453421111688</v>
+        <v>0.3862063919726326</v>
       </c>
       <c r="T10">
-        <v>0.3574534211116879</v>
+        <v>0.3862063919726325</v>
       </c>
     </row>
   </sheetData>
